--- a/Assets/Configs/Inventory/Property/Xlsxs/ItemContainerPropertyData.xlsx
+++ b/Assets/Configs/Inventory/Property/Xlsxs/ItemContainerPropertyData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>黄色背包</t>
+  </si>
+  <si>
+    <t>地面容器</t>
   </si>
 </sst>
 </file>
@@ -674,15 +677,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -998,33 +995,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.3454545454545" defaultRowHeight="15.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="13.3454545454545" defaultRowHeight="15.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16384" width="13.3454545454545" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="13.3454545454545" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>100006</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1">
@@ -1032,10 +1030,10 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>100007</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1">
@@ -1043,10 +1041,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>100008</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1">
@@ -1054,10 +1052,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>100009</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1">
@@ -1065,14 +1063,25 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>100010</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>110000</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>99999999</v>
       </c>
     </row>
   </sheetData>
